--- a/biology/Médecine/L'Information_psychiatrique/L'Information_psychiatrique.xlsx
+++ b/biology/Médecine/L'Information_psychiatrique/L'Information_psychiatrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Information_psychiatrique</t>
+          <t>L'Information_psychiatrique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Information psychiatrique est une revue scientifique mensuelle, créée en 1945. Elle est la revue officielle du syndicat des psychiatres des hôpitaux (SPH).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Information_psychiatrique</t>
+          <t>L'Information_psychiatrique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Information psychiatrique est la revue clinique et professionnelle des psychiatres des hôpitaux. Elle s’adresse à l’ensemble des psychiatres libéraux et hospitaliers, ainsi qu'aux psychologues, paramédicaux, psychothérapeutes et professionnels de santé qui exercent dans le domaine médico-associatif. Fondée en 1945, elle a été le témoin opérant du mouvement dit de la « psychiatrie de secteur » en France. 
 Elle publie des travaux originaux dont les axes majeurs sont la clinique, la psychopathologie, la thérapeutique et le cadre de soins. Elle aborde les questions d’éthique, de politique de soins, au carrefour des sciences humaines et des neurosciences. Dix numéros par an d'environ quatre-vingts pages sont édités.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Information_psychiatrique</t>
+          <t>L'Information_psychiatrique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Diffusion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle publie dix numéros par an, et est présente sur le portail Cairn.info, depuis 2006.
 </t>
